--- a/inclination data/up to 60deg (1m).xlsx
+++ b/inclination data/up to 60deg (1m).xlsx
@@ -350,7 +350,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -358,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1004"/>
+  <dimension ref="A1:H1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A971" workbookViewId="0">
+      <selection activeCell="C1005" sqref="C1005"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12908,7 +12908,7 @@
         <v>58</v>
       </c>
       <c r="G965">
-        <f t="shared" ref="G965:G1004" si="30">TAN(B965)</f>
+        <f t="shared" ref="G965:G1005" si="30">TAN(B965)</f>
         <v>8.3308568524904576</v>
       </c>
     </row>
@@ -13419,6 +13419,34 @@
         <v>0.32004038937956297</v>
       </c>
     </row>
+    <row r="1005" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1005">
+        <v>1001</v>
+      </c>
+      <c r="B1005">
+        <v>60</v>
+      </c>
+      <c r="G1005">
+        <f t="shared" si="30"/>
+        <v>0.32004038937956297</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1006">
+        <v>1002</v>
+      </c>
+      <c r="B1006">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1007">
+        <v>1003</v>
+      </c>
+      <c r="B1007">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
